--- a/DR# 747 AllHome Corp - Javelin Printer DNA (02-16-2022) WCC.xlsx
+++ b/DR# 747 AllHome Corp - Javelin Printer DNA (02-16-2022) WCC.xlsx
@@ -613,7 +613,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
